--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.10.3.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.10.3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472D559C-D9AB-49B9-A9B2-B36858370CD9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5938AA-1F4C-4961-AE74-28AFFC19E073}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -51,12 +51,78 @@
     <t></t>
   </si>
   <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Cash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Note Payable</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Open Sans"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Building</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">asset </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">account that is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>increasing.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>Cash</t>
     </r>
@@ -64,7 +130,9 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Open Sans"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> is an </t>
     </r>
@@ -73,7 +141,9 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Open sans"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>asset</t>
     </r>
@@ -81,7 +151,9 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Open Sans"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> account that is </t>
     </r>
@@ -90,106 +162,64 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Open sans"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>decreasing.</t>
     </r>
   </si>
   <si>
-    <t>Building</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Note Payable</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Open Sans"/>
-      </rPr>
-      <t>Building</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Open Sans"/>
-      </rPr>
-      <t xml:space="preserve"> is an </t>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Note Payable </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is a </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Open sans"/>
-      </rPr>
-      <t xml:space="preserve">asset </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Open Sans"/>
-      </rPr>
-      <t xml:space="preserve">account that is </t>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">liability </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>account that is</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Open sans"/>
-      </rPr>
-      <t>increasing.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Open Sans"/>
-      </rPr>
-      <t xml:space="preserve">Note Payable </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Open Sans"/>
-      </rPr>
-      <t xml:space="preserve">is a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Open sans"/>
-      </rPr>
-      <t xml:space="preserve">liability </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Open Sans"/>
-      </rPr>
-      <t>account that is</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Open sans"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> increasing.</t>
     </r>
@@ -202,7 +232,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,30 +253,63 @@
       <charset val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Open sans"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Open sans"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Open sans"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Open Sans"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Open Sans"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -314,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="37" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -322,33 +385,36 @@
     <xf numFmtId="37" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,10 +743,10 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
@@ -691,7 +757,7 @@
     <col min="13" max="13" width="2.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" customHeight="1">
+    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -705,12 +771,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="30" customHeight="1">
+    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43617</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="6">
         <v>90000</v>
@@ -719,20 +785,20 @@
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="G2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
     </row>
-    <row r="3" spans="1:13" ht="30" customHeight="1">
+    <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="6">
@@ -741,37 +807,37 @@
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="G3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="1:13" ht="30" customHeight="1">
+    <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
-      <c r="B4" s="11" t="s">
-        <v>9</v>
+      <c r="B4" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C4" s="9"/>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>50000</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
